--- a/biology/Zoologie/Histoire_des_singes_et_autres_animaux_curieux/Histoire_des_singes_et_autres_animaux_curieux.xlsx
+++ b/biology/Zoologie/Histoire_des_singes_et_autres_animaux_curieux/Histoire_des_singes_et_autres_animaux_curieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Histoire des singes et autres animaux curieux est un ouvrage de Pons Augustin Alletz[1] publié en 1752[2].
+Histoire des singes et autres animaux curieux est un ouvrage de Pons Augustin Alletz publié en 1752.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Sierra Leone, les baris[Quoi ?], bien élevés[pas clair], rendent autant de services que les esclaves. C'est dans la Côte-de-l'Or (Ghana) que les singes sont les plus nombreux. Au Congo, les orang-outans sont appelés hommes sauvages. Les éléphants perdent leurs dents tous les trois ans et ont donné son nom à la Côte d'Ivoire. Ceux de Guinée courent plus vite que des chevaux. Les castors ont les pattes arrière palmées. Ils regardent la direction du vent avant d'abattre un arbre.
 </t>
